--- a/Entrega2/predicciones.xlsx
+++ b/Entrega2/predicciones.xlsx
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470">
@@ -5442,7 +5442,7 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="502">

--- a/Entrega2/predicciones.xlsx
+++ b/Entrega2/predicciones.xlsx
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="470">
@@ -5442,7 +5442,7 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="502">
